--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1627,28 +1627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.09164907690348</v>
+        <v>115.9065011173331</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.2673688300154</v>
+        <v>158.588388262608</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.5029041557499</v>
+        <v>143.4529350670691</v>
       </c>
       <c r="AD2" t="n">
-        <v>90091.64907690349</v>
+        <v>115906.5011173331</v>
       </c>
       <c r="AE2" t="n">
-        <v>123267.3688300154</v>
+        <v>158588.388262608</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.938672207356896e-06</v>
+        <v>7.119907974837405e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.151620370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>111502.9041557499</v>
+        <v>143452.9350670691</v>
       </c>
     </row>
     <row r="3">
@@ -1733,28 +1733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.43596154941022</v>
+        <v>87.25072408128872</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.05939295520781</v>
+        <v>119.380289918252</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.03688246968164</v>
+        <v>107.9868025997744</v>
       </c>
       <c r="AD3" t="n">
-        <v>61435.96154941022</v>
+        <v>87250.72408128872</v>
       </c>
       <c r="AE3" t="n">
-        <v>84059.39295520782</v>
+        <v>119380.289918252</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.193389156068185e-06</v>
+        <v>8.928788749711554e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.907407407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>76036.88246968164</v>
+        <v>107986.8025997744</v>
       </c>
     </row>
   </sheetData>
@@ -2030,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.28125227084766</v>
+        <v>96.3629307352642</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.53015406384398</v>
+        <v>131.8480130644007</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.2220130444458</v>
+        <v>119.2646237474179</v>
       </c>
       <c r="AD2" t="n">
-        <v>71281.25227084766</v>
+        <v>96362.93073526421</v>
       </c>
       <c r="AE2" t="n">
-        <v>97530.15406384398</v>
+        <v>131848.0130644007</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.878076323252565e-06</v>
+        <v>8.605282610165619e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>88222.0130444458</v>
+        <v>119264.6237474179</v>
       </c>
     </row>
     <row r="3">
@@ -2136,28 +2136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.94474319460664</v>
+        <v>84.11167300504376</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.65079809737016</v>
+        <v>115.0853017505761</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.95359912108199</v>
+        <v>104.1017220747663</v>
       </c>
       <c r="AD3" t="n">
-        <v>58944.74319460664</v>
+        <v>84111.67300504376</v>
       </c>
       <c r="AE3" t="n">
-        <v>80650.79809737016</v>
+        <v>115085.3017505761</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.453317532116338e-06</v>
+        <v>9.447414099970263e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.872685185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>72953.59912108199</v>
+        <v>104101.7220747663</v>
       </c>
     </row>
   </sheetData>
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.14915448200515</v>
+        <v>85.28042848413219</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.03521498943529</v>
+        <v>116.6844445589168</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.91957341853761</v>
+        <v>105.5482449378905</v>
       </c>
       <c r="AD2" t="n">
-        <v>62149.15448200515</v>
+        <v>85280.42848413219</v>
       </c>
       <c r="AE2" t="n">
-        <v>85035.21498943529</v>
+        <v>116684.4445589168</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.584963258971982e-06</v>
+        <v>1.018775096284038e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.329861111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>76919.57341853761</v>
+        <v>105548.2449378905</v>
       </c>
     </row>
   </sheetData>
@@ -2730,28 +2730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.78447381296117</v>
+        <v>79.82749434500116</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.27273104324534</v>
+        <v>109.2234995032856</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.94354408054622</v>
+        <v>98.79936200686421</v>
       </c>
       <c r="AD2" t="n">
-        <v>63784.47381296117</v>
+        <v>79827.49434500116</v>
       </c>
       <c r="AE2" t="n">
-        <v>87272.73104324534</v>
+        <v>109223.4995032856</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.659322287881081e-06</v>
+        <v>1.006419360756894e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.04050925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>78943.54408054621</v>
+        <v>98799.36200686422</v>
       </c>
     </row>
   </sheetData>
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.36838360723896</v>
+        <v>84.04481851866211</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.96692983340074</v>
+        <v>114.993828492897</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.95324389844701</v>
+        <v>104.0189788964166</v>
       </c>
       <c r="AD2" t="n">
-        <v>61368.38360723896</v>
+        <v>84044.81851866211</v>
       </c>
       <c r="AE2" t="n">
-        <v>83966.92983340075</v>
+        <v>114993.828492897</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.32777905694603e-06</v>
+        <v>1.000097880504419e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.758101851851851</v>
       </c>
       <c r="AH2" t="n">
-        <v>75953.24389844701</v>
+        <v>104018.9788964166</v>
       </c>
     </row>
   </sheetData>
@@ -3324,28 +3324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.66047236697882</v>
+        <v>99.08302032429945</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.7855079631517</v>
+        <v>135.5697596420002</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.16668053652252</v>
+        <v>122.6311720551567</v>
       </c>
       <c r="AD2" t="n">
-        <v>73660.47236697882</v>
+        <v>99083.02032429946</v>
       </c>
       <c r="AE2" t="n">
-        <v>100785.5079631517</v>
+        <v>135569.7596420002</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.629506272036572e-06</v>
+        <v>8.20718000732642e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.532407407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>91166.68053652252</v>
+        <v>122631.1720551567</v>
       </c>
     </row>
     <row r="3">
@@ -3430,28 +3430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.6204754111718</v>
+        <v>83.95768251392083</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.20712061038988</v>
+        <v>114.8746051670408</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.55226559075369</v>
+        <v>103.9111340774491</v>
       </c>
       <c r="AD3" t="n">
-        <v>58620.47541117181</v>
+        <v>83957.68251392082</v>
       </c>
       <c r="AE3" t="n">
-        <v>80207.12061038987</v>
+        <v>114874.6051670408</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.542335153279417e-06</v>
+        <v>9.537980717410031e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.762731481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>72552.2655907537</v>
+        <v>103911.1340774491</v>
       </c>
     </row>
   </sheetData>
@@ -3727,28 +3727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.83666376404025</v>
+        <v>91.05749836115078</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.18536022119834</v>
+        <v>124.588886430985</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.19644163169357</v>
+        <v>112.6982979716449</v>
       </c>
       <c r="AD2" t="n">
-        <v>68836.66376404025</v>
+        <v>91057.49836115078</v>
       </c>
       <c r="AE2" t="n">
-        <v>94185.36022119834</v>
+        <v>124588.886430985</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.052137200671926e-06</v>
+        <v>9.69694542845163e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.163194444444446</v>
       </c>
       <c r="AH2" t="n">
-        <v>85196.44163169357</v>
+        <v>112698.2979716449</v>
       </c>
     </row>
   </sheetData>
@@ -4024,28 +4024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.40939516038315</v>
+        <v>82.0236927717299</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.55006718217183</v>
+        <v>112.2284350801708</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.05335901603519</v>
+        <v>101.517510749746</v>
       </c>
       <c r="AD2" t="n">
-        <v>57409.39516038315</v>
+        <v>82023.6927717299</v>
       </c>
       <c r="AE2" t="n">
-        <v>78550.06718217183</v>
+        <v>112228.4350801708</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.550790369171738e-06</v>
+        <v>9.726896515485919e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.942129629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>71053.35901603519</v>
+        <v>101517.510749746</v>
       </c>
     </row>
     <row r="3">
@@ -4130,28 +4130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.35646218760725</v>
+        <v>81.97075979895401</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.47764195358192</v>
+        <v>112.1560098515809</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.98784594961242</v>
+        <v>101.4519976833233</v>
       </c>
       <c r="AD3" t="n">
-        <v>57356.46218760725</v>
+        <v>81970.75979895401</v>
       </c>
       <c r="AE3" t="n">
-        <v>78477.64195358193</v>
+        <v>112156.0098515809</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.582025125178829e-06</v>
+        <v>9.773275230457048e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.918981481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>70987.84594961243</v>
+        <v>101451.9976833233</v>
       </c>
     </row>
   </sheetData>
@@ -4427,28 +4427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.84430556312402</v>
+        <v>85.56140731496824</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.19581606783713</v>
+        <v>117.0688921911776</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.20589958700404</v>
+        <v>105.8960014277041</v>
       </c>
       <c r="AD2" t="n">
-        <v>68844.30556312403</v>
+        <v>85561.40731496824</v>
       </c>
       <c r="AE2" t="n">
-        <v>94195.81606783714</v>
+        <v>117068.8921911776</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.175558344061693e-06</v>
+        <v>9.08080332152847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.138888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>85205.89958700404</v>
+        <v>105896.0014277041</v>
       </c>
     </row>
     <row r="3">
@@ -4533,28 +4533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.54432726549496</v>
+        <v>83.5345047758631</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.10293135805577</v>
+        <v>114.2955947165463</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.45802001443181</v>
+        <v>103.3873835717033</v>
       </c>
       <c r="AD3" t="n">
-        <v>58544.32726549496</v>
+        <v>83534.5047758631</v>
       </c>
       <c r="AE3" t="n">
-        <v>80102.93135805576</v>
+        <v>114295.5947165463</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.472711738924225e-06</v>
+        <v>9.517750296155609e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.901620370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>72458.02001443181</v>
+        <v>103387.3835717033</v>
       </c>
     </row>
   </sheetData>
@@ -4830,28 +4830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.8773314850845</v>
+        <v>113.0346306092575</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.9234447601213</v>
+        <v>154.658968335476</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.6233826637488</v>
+        <v>139.8985334628059</v>
       </c>
       <c r="AD2" t="n">
-        <v>78877.33148508449</v>
+        <v>113034.6306092575</v>
       </c>
       <c r="AE2" t="n">
-        <v>107923.4447601213</v>
+        <v>154658.968335476</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.139507848552332e-06</v>
+        <v>7.435698653076774e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.960648148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>97623.38266374879</v>
+        <v>139898.5334628059</v>
       </c>
     </row>
     <row r="3">
@@ -4936,28 +4936,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.85435496945388</v>
+        <v>86.51499973986945</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.26361317384055</v>
+        <v>118.3736394164554</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.31705079376387</v>
+        <v>107.0762254090261</v>
       </c>
       <c r="AD3" t="n">
-        <v>60854.35496945388</v>
+        <v>86514.99973986945</v>
       </c>
       <c r="AE3" t="n">
-        <v>83263.61317384055</v>
+        <v>118373.6394164555</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.256028011644645e-06</v>
+        <v>9.05104932817635e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.895833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>75317.05079376388</v>
+        <v>107076.2254090261</v>
       </c>
     </row>
   </sheetData>
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.18639601933095</v>
+        <v>80.38848286435579</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.87670580247091</v>
+        <v>109.9910687445329</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.53970089783492</v>
+        <v>99.49367551701738</v>
       </c>
       <c r="AD2" t="n">
-        <v>56186.39601933095</v>
+        <v>80388.4828643558</v>
       </c>
       <c r="AE2" t="n">
-        <v>76876.70580247091</v>
+        <v>109991.0687445329</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.647166124583251e-06</v>
+        <v>9.981947096220073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.988425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>69539.70089783492</v>
+        <v>99493.67551701739</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.48071997320586</v>
+        <v>78.19719346591756</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.48887752213298</v>
+        <v>106.9928499167258</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.32993903583412</v>
+        <v>96.78160248610868</v>
       </c>
       <c r="AD2" t="n">
-        <v>62480.71997320586</v>
+        <v>78197.19346591756</v>
       </c>
       <c r="AE2" t="n">
-        <v>85488.87752213299</v>
+        <v>106992.8499167258</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.673284011208857e-06</v>
+        <v>1.023512765655599e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.173611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>77329.93903583412</v>
+        <v>96781.60248610868</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.70337954344139</v>
+        <v>84.7081598137153</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.42528605229035</v>
+        <v>115.9014413173409</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.36785524311293</v>
+        <v>104.8399704267384</v>
       </c>
       <c r="AD2" t="n">
-        <v>61703.37954344139</v>
+        <v>84708.15981371531</v>
       </c>
       <c r="AE2" t="n">
-        <v>84425.28605229035</v>
+        <v>115901.4413173409</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.488124095674378e-06</v>
+        <v>1.013756591887169e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.503472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>76367.85524311292</v>
+        <v>104839.9704267384</v>
       </c>
     </row>
   </sheetData>
@@ -9233,28 +9233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.28700482608902</v>
+        <v>98.36868860817579</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.80153672993862</v>
+        <v>134.5923794739091</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.75381111924902</v>
+        <v>121.7470716785462</v>
       </c>
       <c r="AD2" t="n">
-        <v>69287.00482608902</v>
+        <v>98368.68860817578</v>
       </c>
       <c r="AE2" t="n">
-        <v>94801.53672993861</v>
+        <v>134592.3794739091</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.555211496228695e-06</v>
+        <v>9.05319558970234e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.898148148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>85753.81111924902</v>
+        <v>121747.0716785462</v>
       </c>
     </row>
   </sheetData>
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.05184961207003</v>
+        <v>83.64633039906325</v>
       </c>
       <c r="AB2" t="n">
-        <v>91.74329875803073</v>
+        <v>114.448599467607</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.98744708711511</v>
+        <v>103.5257857640663</v>
       </c>
       <c r="AD2" t="n">
-        <v>67051.84961207003</v>
+        <v>83646.33039906324</v>
       </c>
       <c r="AE2" t="n">
-        <v>91743.29875803074</v>
+        <v>114448.599467607</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.391533369296873e-06</v>
+        <v>9.442728712836518e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.017361111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>82987.44708711511</v>
+        <v>103525.7857640663</v>
       </c>
     </row>
     <row r="3">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.93359077565236</v>
+        <v>82.73983683874398</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.2672947488612</v>
+        <v>113.2082949867054</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.70213539039516</v>
+        <v>102.4038542020433</v>
       </c>
       <c r="AD3" t="n">
-        <v>57933.59077565235</v>
+        <v>82739.83683874398</v>
       </c>
       <c r="AE3" t="n">
-        <v>79267.2947488612</v>
+        <v>113208.2949867054</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.527523440984041e-06</v>
+        <v>9.643637834386232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.913194444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>71702.13539039515</v>
+        <v>102403.8542020433</v>
       </c>
     </row>
   </sheetData>
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.3636149665861</v>
+        <v>101.9505634887057</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.4840669221675</v>
+        <v>139.4932587066149</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.51225421945111</v>
+        <v>126.1802178757112</v>
       </c>
       <c r="AD2" t="n">
-        <v>76363.6149665861</v>
+        <v>101950.5634887057</v>
       </c>
       <c r="AE2" t="n">
-        <v>104484.0669221675</v>
+        <v>139493.2587066148</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.358673462988717e-06</v>
+        <v>7.781699567824577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>94512.2542194511</v>
+        <v>126180.2178757112</v>
       </c>
     </row>
     <row r="3">
@@ -10039,28 +10039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.04945802604651</v>
+        <v>85.55106569359447</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.16231766632413</v>
+        <v>117.0547423285739</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.3208613838065</v>
+        <v>105.8832020081279</v>
       </c>
       <c r="AD3" t="n">
-        <v>60049.45802604651</v>
+        <v>85551.06569359447</v>
       </c>
       <c r="AE3" t="n">
-        <v>82162.31766632413</v>
+        <v>117054.7423285739</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.345162598056896e-06</v>
+        <v>9.214248524025054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.866898148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>74320.86138380651</v>
+        <v>105883.2020081279</v>
       </c>
     </row>
   </sheetData>
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.70173865587962</v>
+        <v>114.2497353914953</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.2608997227943</v>
+        <v>156.3215283051726</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.0696840299877</v>
+        <v>141.4024210424128</v>
       </c>
       <c r="AD2" t="n">
-        <v>85701.73865587963</v>
+        <v>114249.7353914953</v>
       </c>
       <c r="AE2" t="n">
-        <v>117260.8997227943</v>
+        <v>156321.5283051726</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.64829905826867e-06</v>
+        <v>7.748437588929987e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.541666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>106069.6840299877</v>
+        <v>141402.4210424128</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.05974443998447</v>
+        <v>78.94491590016703</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.28112434233567</v>
+        <v>108.0159167384511</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.04657493144234</v>
+        <v>97.70702924625215</v>
       </c>
       <c r="AD2" t="n">
-        <v>63059.74443998447</v>
+        <v>78944.91590016703</v>
       </c>
       <c r="AE2" t="n">
-        <v>86281.12434233568</v>
+        <v>108015.9167384511</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.687183331765935e-06</v>
+        <v>1.017726859328251e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.086805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>78046.57493144233</v>
+        <v>97707.02924625215</v>
       </c>
     </row>
   </sheetData>
@@ -10930,28 +10930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.75310263327022</v>
+        <v>81.16642523779181</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.65209879299351</v>
+        <v>111.0554838202629</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.2410914696132</v>
+        <v>100.4565043118359</v>
       </c>
       <c r="AD2" t="n">
-        <v>56753.10263327022</v>
+        <v>81166.42523779182</v>
       </c>
       <c r="AE2" t="n">
-        <v>77652.09879299351</v>
+        <v>111055.4838202629</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.610049057491176e-06</v>
+        <v>9.868212925934337e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.953703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>70241.09146961319</v>
+        <v>100456.5043118359</v>
       </c>
     </row>
     <row r="3">
@@ -11036,28 +11036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.84542268535763</v>
+        <v>81.25874528987923</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.7784151611327</v>
+        <v>111.1818001884021</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.35535238086335</v>
+        <v>100.5707652230861</v>
       </c>
       <c r="AD3" t="n">
-        <v>56845.42268535763</v>
+        <v>81258.74528987923</v>
       </c>
       <c r="AE3" t="n">
-        <v>77778.4151611327</v>
+        <v>111181.800188402</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.60852085331639e-06</v>
+        <v>9.865931453579151e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.953703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>70355.35238086335</v>
+        <v>100570.7652230861</v>
       </c>
     </row>
   </sheetData>
